--- a/biology/Écologie/Michael_Schnitzler/Michael_Schnitzler.xlsx
+++ b/biology/Écologie/Michael_Schnitzler/Michael_Schnitzler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Schnitzler (né le 7 août 1944 à Berkeley (Californie), États-Unis) est un écologiste et un violoniste autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né de parents autrichiens ayant fui le pays après l'Anschluss en 1938, il est le fils de Heinrich Schnitzler, acteur et metteur en scène, et le petit-fils de l'écrivain Arthur Schnitzler. En 1959, il a déménagé avec sa famille à Vienne, où il a étudié le violon à l'Académie de Musique. Il a joué pendant 15 ans comme remplaçant à l'Orchestre philharmonique de Vienne. De 1967 à 1983, il a été premier violon de l'Orchestre symphonique de Vienne, et de 1982 jusqu'à sa retraite en 2006 il a été professeur de violon à l'Académie de musique et des arts du spectacle de Vienne. Depuis 1965, il est violoniste dans le Trio Haydn de Vienne, avec qui il est parti en tournée à travers le monde entier, a fait de nombreux enregistrements et a joué pendant 30 années pour le Konzerthaus de Vienne.
 En 1991, il crée l'organisation « La forêt humide des Autrichiens » dans laquelle il occupe encore de nos jours le poste du président. Michael Schnitzler a été honoré en 1995 avec le prix écologique le plus reconnu en Autriche, le « Konrad-Lorenz-Preis » comme avec celui de la « Binding-Stiftung » de la Principauté de Liechtenstein. De 1993 à 1995, il s'occupe du projet « Station tropicale La Gamba » au bord de la forêt tropicale d'Esquinas proche de la localité La Gamba au Costa Rica.
